--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -92,7 +92,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -108,8 +108,23 @@
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -128,6 +143,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -429,14 +448,14 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="15.550625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="3.980625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="17.550625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="3.980625" style="1" customWidth="1"/>
+    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
@@ -468,18 +487,18 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" s="0" customFormat="1">
-      <x:c r="A5" s="0" t="s"/>
+      <x:c r="A5" s="5" t="s"/>
       <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="C5" s="5" t="s"/>
+      <x:c r="D5" s="5" t="s"/>
+      <x:c r="E5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5" s="0" customFormat="1">
       <x:c r="A6" s="3" t="s"/>
       <x:c r="B6" s="3" t="s"/>
       <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
+      <x:c r="D6" s="5" t="s"/>
+      <x:c r="E6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="B7" s="4" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -92,7 +92,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -111,9 +111,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -124,7 +121,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -143,10 +140,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -487,18 +480,18 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" s="0" customFormat="1">
-      <x:c r="A5" s="5" t="s"/>
+      <x:c r="A5" s="0" t="s"/>
       <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="5" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="E5" s="5" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5" s="0" customFormat="1">
       <x:c r="A6" s="3" t="s"/>
       <x:c r="B6" s="3" t="s"/>
       <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
-      <x:c r="E6" s="5" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="B7" s="4" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -480,18 +480,18 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" s="0" customFormat="1">
-      <x:c r="A5" s="0" t="s"/>
+      <x:c r="A5" s="1" t="s"/>
       <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="C5" s="1" t="s"/>
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="E5" s="1" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5" s="0" customFormat="1">
       <x:c r="A6" s="3" t="s"/>
       <x:c r="B6" s="3" t="s"/>
       <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
+      <x:c r="D6" s="1" t="s"/>
+      <x:c r="E6" s="1" t="s"/>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="B7" s="4" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -506,14 +506,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -480,18 +480,18 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5" s="0" customFormat="1">
-      <x:c r="A5" s="1" t="s"/>
+      <x:c r="A5" s="0" t="s"/>
       <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="1" t="s"/>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:5" s="0" customFormat="1">
       <x:c r="A6" s="3" t="s"/>
       <x:c r="B6" s="3" t="s"/>
       <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="E6" s="1" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="B7" s="4" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -443,11 +443,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.550625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="3.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.1090625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="3.1090625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="17.550625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="3.980625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="17.1090625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="3.1090625" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -443,11 +443,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.1090625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="3.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.10125" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="3.10125" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="17.1090625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="3.1090625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="17.10125" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="3.10125" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -443,11 +443,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.10125" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="3.10125" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.550625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="3.980625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="17.10125" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="3.10125" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="17.550625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="3.980625" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -38,7 +38,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -446,7 +446,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:E9"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -450,11 +450,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.550625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="3.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.020625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="2.900625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="17.550625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="3.980625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="15.970625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="2.900625" style="1" customWidth="1"/>
     <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/CurrentRowColumn.xlsx
@@ -100,52 +100,52 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="9">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
